--- a/代码列表.xlsx
+++ b/代码列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mybatis-3\mybatis-3-mybatis-3.2.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\mybatis-3\mybatis-3.2.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="357">
   <si>
     <t>annotations\Arg.java</t>
   </si>
@@ -200,9 +200,6 @@
     <t>cache\decorators\LruCache.java</t>
   </si>
   <si>
-    <t>cache\decorators\package-info.java</t>
-  </si>
-  <si>
     <t>cache\decorators\ScheduledCache.java</t>
   </si>
   <si>
@@ -221,18 +218,9 @@
     <t>cache\decorators\WeakCache.java</t>
   </si>
   <si>
-    <t>cache\impl\package-info.java</t>
-  </si>
-  <si>
-    <t>cache\impl\PerpetualCache.java</t>
-  </si>
-  <si>
     <t>cache\NullCacheKey.java</t>
   </si>
   <si>
-    <t>cache\package-info.java</t>
-  </si>
-  <si>
     <t>cache\TransactionalCacheManager.java</t>
   </si>
   <si>
@@ -326,9 +314,6 @@
     <t>executor\keygen\NoKeyGenerator.java</t>
   </si>
   <si>
-    <t>executor\keygen\package-info.java</t>
-  </si>
-  <si>
     <t>executor\keygen\SelectKeyGenerator.java</t>
   </si>
   <si>
@@ -344,9 +329,6 @@
     <t>executor\loader\cglib\CglibSerialStateHolder.java</t>
   </si>
   <si>
-    <t>executor\loader\cglib\package-info.java</t>
-  </si>
-  <si>
     <t>executor\loader\CglibProxyFactory.java</t>
   </si>
   <si>
@@ -356,15 +338,9 @@
     <t>executor\loader\javassist\JavassistSerialStateHolder.java</t>
   </si>
   <si>
-    <t>executor\loader\javassist\package-info.java</t>
-  </si>
-  <si>
     <t>executor\loader\JavassistProxyFactory.java</t>
   </si>
   <si>
-    <t>executor\loader\package-info.java</t>
-  </si>
-  <si>
     <t>executor\loader\ProxyFactory.java</t>
   </si>
   <si>
@@ -377,12 +353,6 @@
     <t>executor\loader\WriteReplaceInterface.java</t>
   </si>
   <si>
-    <t>executor\package-info.java</t>
-  </si>
-  <si>
-    <t>executor\parameter\package-info.java</t>
-  </si>
-  <si>
     <t>executor\parameter\ParameterHandler.java</t>
   </si>
   <si>
@@ -395,16 +365,10 @@
     <t>executor\result\DefaultResultHandler.java</t>
   </si>
   <si>
-    <t>executor\result\package-info.java</t>
-  </si>
-  <si>
     <t>executor\ResultExtractor.java</t>
   </si>
   <si>
     <t>executor\resultset\DefaultResultSetHandler.java</t>
-  </si>
-  <si>
-    <t>executor\resultset\package-info.java</t>
   </si>
   <si>
     <t>executor\resultset\ResultSetHandler.java</t>
@@ -1136,11 +1100,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>这是Session缓存的实现类</t>
-  </si>
-  <si>
     <t>executor</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache\impl\PerpetualCache.java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级缓存和Session缓存的最终实现类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级缓存的eviction策略实现类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互配合，实现二级缓存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用ThreadLocal和store/recall函数，实现了简单的事件记录类。</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1266,13 +1246,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1300,11 +1289,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1315,6 +1301,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1324,8 +1316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,14 +1342,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1405,13 +1397,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1460,13 +1452,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>107098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1515,13 +1507,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>61634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>142628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1570,13 +1562,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>140073</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>450092</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>313766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1625,13 +1617,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>330572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>669079</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>2252381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1734,15 +1726,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2646294</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>79869</xdr:rowOff>
+      <xdr:colOff>2625587</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>439010</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>1482587</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314770</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1578369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1766,8 +1758,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10092359" y="9124478"/>
-          <a:ext cx="5669477" cy="4359609"/>
+          <a:off x="10071652" y="9306696"/>
+          <a:ext cx="4878488" cy="3751369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2052,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:A131"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2066,7 +2058,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="17"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2070,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2082,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2102,7 +2094,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2114,7 +2106,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2126,7 +2118,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -2138,7 +2130,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2142,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2162,7 +2154,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2174,7 +2166,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2186,7 +2178,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2198,7 +2190,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2202,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2222,7 +2214,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
@@ -2234,7 +2226,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2238,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2250,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
@@ -2270,7 +2262,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -2282,7 +2274,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2294,7 +2286,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2306,7 +2298,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
@@ -2318,7 +2310,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
@@ -2330,7 +2322,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
@@ -2342,7 +2334,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
@@ -2354,7 +2346,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -2366,7 +2358,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2641,7 +2633,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
         <v>48</v>
@@ -2653,7 +2645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
         <v>49</v>
@@ -2665,7 +2657,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
         <v>50</v>
@@ -2677,7 +2669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
         <v>51</v>
@@ -2689,9 +2681,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="11" t="s">
-        <v>362</v>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>52</v>
@@ -2703,8 +2695,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="12"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
       <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2715,20 +2707,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="12"/>
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="5">
         <v>136</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="5">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="12"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
       <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
@@ -2738,83 +2730,89 @@
       <c r="D56" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="12"/>
+      <c r="E56" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
       <c r="B57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="3">
+        <v>99</v>
+      </c>
+      <c r="D57" s="3">
+        <v>63</v>
+      </c>
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="3">
+        <v>124</v>
+      </c>
+      <c r="D58" s="3">
+        <v>85</v>
+      </c>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="3">
+        <v>117</v>
+      </c>
+      <c r="D59" s="3">
+        <v>80</v>
+      </c>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C60" s="3">
         <v>96</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D60" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="12"/>
-      <c r="B58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="3">
-        <v>99</v>
-      </c>
-      <c r="D58" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="12"/>
-      <c r="B59" s="3" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="3">
-        <v>20</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="12"/>
-      <c r="B60" s="3" t="s">
+      <c r="C61" s="3">
+        <v>102</v>
+      </c>
+      <c r="D61" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="11"/>
+      <c r="B62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="3">
-        <v>102</v>
-      </c>
-      <c r="D60" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="12"/>
-      <c r="B61" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="C62" s="3">
         <v>132</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D62" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="12"/>
-      <c r="B62" s="3" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="11"/>
+      <c r="B63" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C62" s="3">
-        <v>124</v>
-      </c>
-      <c r="D62" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="12"/>
-      <c r="B63" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="C63" s="3">
         <v>78</v>
@@ -2823,543 +2821,550 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="12"/>
-      <c r="B64" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="3">
-        <v>135</v>
-      </c>
-      <c r="D64" s="3">
-        <v>95</v>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="11"/>
+      <c r="B64" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C64" s="5">
+        <v>80</v>
+      </c>
+      <c r="D64" s="5">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="12"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="3">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="D65" s="3">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="12"/>
-      <c r="B66" s="3" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="5">
+        <v>135</v>
+      </c>
+      <c r="D66" s="5">
+        <v>95</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="12"/>
+      <c r="B67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="3">
-        <v>20</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="12"/>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="5">
+        <v>63</v>
+      </c>
+      <c r="D67" s="5">
+        <v>34</v>
+      </c>
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="3">
-        <v>80</v>
-      </c>
-      <c r="D67" s="3">
-        <v>45</v>
-      </c>
-      <c r="E67" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="12"/>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="3">
+        <v>43</v>
+      </c>
+      <c r="D68" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="3">
-        <v>38</v>
-      </c>
-      <c r="D68" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="12"/>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3">
+        <v>30</v>
+      </c>
+      <c r="D69" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="3">
-        <v>20</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="13"/>
-      <c r="B70" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C70" s="3">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D70" s="3">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="3">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D71" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D72" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="3">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D73" s="3">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="3">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="D74" s="3">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" s="3">
-        <v>20</v>
+        <v>546</v>
       </c>
       <c r="D75" s="3">
-        <v>1</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D76" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="3">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="D77" s="3">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="3">
-        <v>546</v>
+        <v>20</v>
       </c>
       <c r="D78" s="3">
-        <v>394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="3">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="D79" s="3">
-        <v>7</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="3">
         <v>79</v>
       </c>
-      <c r="C80" s="3">
-        <v>114</v>
-      </c>
       <c r="D80" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D81" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" s="3">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="D82" s="3">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" s="3">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D83" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" s="3">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D84" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="3">
+        <v>40</v>
+      </c>
+      <c r="D85" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C86" s="5">
+        <v>329</v>
+      </c>
+      <c r="D86" s="5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="11"/>
+      <c r="B87" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="5">
+        <v>78</v>
+      </c>
+      <c r="D87" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="11"/>
+      <c r="B88" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="3">
+        <v>99</v>
+      </c>
+      <c r="D88" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="11"/>
+      <c r="B89" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="3">
+        <v>143</v>
+      </c>
+      <c r="D89" s="3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="11"/>
+      <c r="B90" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="3">
+        <v>88</v>
+      </c>
+      <c r="D90" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="11"/>
+      <c r="B91" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="3">
+        <v>75</v>
+      </c>
+      <c r="D91" s="3">
         <v>42</v>
       </c>
-      <c r="D85" s="3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="11"/>
+      <c r="B92" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="5">
+        <v>156</v>
+      </c>
+      <c r="D92" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A93" s="11"/>
+      <c r="B93" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="5">
+        <v>149</v>
+      </c>
+      <c r="D93" s="5">
+        <v>102</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="11"/>
+      <c r="B94" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="3">
+        <v>23</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="11"/>
+      <c r="B95" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="3">
+        <v>64</v>
+      </c>
+      <c r="D95" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="11"/>
+      <c r="B96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="3">
+        <v>43</v>
+      </c>
+      <c r="D96" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="11"/>
+      <c r="B97" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="3">
+        <v>100</v>
+      </c>
+      <c r="D97" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="11"/>
+      <c r="B98" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="3">
+        <v>32</v>
+      </c>
+      <c r="D98" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="11"/>
+      <c r="B99" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" s="3">
+        <v>34</v>
+      </c>
+      <c r="D99" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="11"/>
+      <c r="B100" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="3">
+        <v>120</v>
+      </c>
+      <c r="D100" s="3">
         <v>85</v>
       </c>
-      <c r="C86" s="3">
-        <v>20</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" s="3">
-        <v>41</v>
-      </c>
-      <c r="D87" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="3">
-        <v>40</v>
-      </c>
-      <c r="D88" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="3">
-        <v>329</v>
-      </c>
-      <c r="D89" s="3">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="12"/>
-      <c r="B90" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="3">
-        <v>143</v>
-      </c>
-      <c r="D90" s="3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="12"/>
-      <c r="B91" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="3">
-        <v>88</v>
-      </c>
-      <c r="D91" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="12"/>
-      <c r="B92" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="3">
-        <v>75</v>
-      </c>
-      <c r="D92" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="12"/>
-      <c r="B93" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="3">
-        <v>156</v>
-      </c>
-      <c r="D93" s="3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="12"/>
-      <c r="B94" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="3">
-        <v>149</v>
-      </c>
-      <c r="D94" s="3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="11"/>
+      <c r="B101" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="3">
+        <v>106</v>
+      </c>
+      <c r="D101" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="11"/>
+      <c r="B102" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="3">
+        <v>132</v>
+      </c>
+      <c r="D102" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="11"/>
+      <c r="B103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="3">
+        <v>188</v>
+      </c>
+      <c r="D103" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="11"/>
+      <c r="B104" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="3">
+        <v>49</v>
+      </c>
+      <c r="D104" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="11"/>
+      <c r="B105" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" s="3">
+        <v>24</v>
+      </c>
+      <c r="D105" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="11"/>
+      <c r="B106" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="12"/>
-      <c r="B95" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="3">
-        <v>23</v>
-      </c>
-      <c r="D95" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="12"/>
-      <c r="B96" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="3">
-        <v>64</v>
-      </c>
-      <c r="D96" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="12"/>
-      <c r="B97" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="3">
-        <v>43</v>
-      </c>
-      <c r="D97" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="12"/>
-      <c r="B98" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98" s="3">
-        <v>100</v>
-      </c>
-      <c r="D98" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="12"/>
-      <c r="B99" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="3">
-        <v>32</v>
-      </c>
-      <c r="D99" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="12"/>
-      <c r="B100" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="3">
-        <v>34</v>
-      </c>
-      <c r="D100" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="12"/>
-      <c r="B101" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="3">
-        <v>20</v>
-      </c>
-      <c r="D101" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="12"/>
-      <c r="B102" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="3">
-        <v>120</v>
-      </c>
-      <c r="D102" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="12"/>
-      <c r="B103" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C103" s="3">
-        <v>106</v>
-      </c>
-      <c r="D103" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="12"/>
-      <c r="B104" s="3" t="s">
+      <c r="C106" s="3">
+        <v>190</v>
+      </c>
+      <c r="D106" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="11"/>
+      <c r="B107" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="3">
-        <v>132</v>
-      </c>
-      <c r="D104" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="12"/>
-      <c r="B105" s="3" t="s">
+      <c r="C107" s="3">
+        <v>49</v>
+      </c>
+      <c r="D107" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="11"/>
+      <c r="B108" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C105" s="3">
-        <v>188</v>
-      </c>
-      <c r="D105" s="3">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="12"/>
-      <c r="B106" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="3">
-        <v>49</v>
-      </c>
-      <c r="D106" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="12"/>
-      <c r="B107" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="3">
-        <v>20</v>
-      </c>
-      <c r="D107" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="12"/>
-      <c r="B108" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C108" s="3">
         <v>24</v>
@@ -3369,505 +3374,505 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="12"/>
+      <c r="A109" s="11"/>
       <c r="B109" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="3">
+        <v>33</v>
+      </c>
+      <c r="D109" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="11"/>
+      <c r="B110" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="3">
+        <v>103</v>
+      </c>
+      <c r="D110" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="11"/>
+      <c r="B111" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="3">
+        <v>298</v>
+      </c>
+      <c r="D111" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="11"/>
+      <c r="B112" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="3">
-        <v>190</v>
-      </c>
-      <c r="D109" s="3">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="12"/>
-      <c r="B110" s="3" t="s">
+      <c r="C112" s="3">
+        <v>27</v>
+      </c>
+      <c r="D112" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="11"/>
+      <c r="B113" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C113" s="3">
+        <v>33</v>
+      </c>
+      <c r="D113" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="11"/>
+      <c r="B114" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" s="3">
+        <v>56</v>
+      </c>
+      <c r="D114" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="11"/>
+      <c r="B115" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" s="3">
+        <v>56</v>
+      </c>
+      <c r="D115" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="11"/>
+      <c r="B116" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" s="3">
         <v>49</v>
       </c>
-      <c r="D110" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="12"/>
-      <c r="B111" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="3">
-        <v>20</v>
-      </c>
-      <c r="D111" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="12"/>
-      <c r="B112" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="3">
-        <v>24</v>
-      </c>
-      <c r="D112" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="12"/>
-      <c r="B113" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C113" s="3">
-        <v>20</v>
-      </c>
-      <c r="D113" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="12"/>
-      <c r="B114" s="3" t="s">
+      <c r="D116" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="11"/>
+      <c r="B117" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="3">
-        <v>33</v>
-      </c>
-      <c r="D114" s="3">
+      <c r="C117" s="3">
+        <v>57</v>
+      </c>
+      <c r="D117" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="11"/>
+      <c r="B118" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" s="3">
+        <v>939</v>
+      </c>
+      <c r="D118" s="3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="11"/>
+      <c r="B119" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="3">
+        <v>32</v>
+      </c>
+      <c r="D119" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="12"/>
-      <c r="B115" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" s="3">
-        <v>103</v>
-      </c>
-      <c r="D115" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="12"/>
-      <c r="B116" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C116" s="3">
-        <v>298</v>
-      </c>
-      <c r="D116" s="3">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="12"/>
-      <c r="B117" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" s="3">
-        <v>27</v>
-      </c>
-      <c r="D117" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="12"/>
-      <c r="B118" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" s="3">
-        <v>20</v>
-      </c>
-      <c r="D118" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="12"/>
-      <c r="B119" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="3">
-        <v>20</v>
-      </c>
-      <c r="D119" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="12"/>
       <c r="B120" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="3">
+        <v>174</v>
+      </c>
+      <c r="D120" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2"/>
+      <c r="B121" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="3">
-        <v>33</v>
-      </c>
-      <c r="D120" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="12"/>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="3">
+        <v>134</v>
+      </c>
+      <c r="D121" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="2"/>
+      <c r="B122" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="3">
-        <v>56</v>
-      </c>
-      <c r="D121" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="12"/>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="3">
+        <v>108</v>
+      </c>
+      <c r="D122" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="2"/>
+      <c r="B123" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="3">
-        <v>56</v>
-      </c>
-      <c r="D122" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="12"/>
-      <c r="B123" s="3" t="s">
+      <c r="C123" s="3">
+        <v>20</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="2"/>
+      <c r="B124" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C124" s="3">
+        <v>83</v>
+      </c>
+      <c r="D124" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="2"/>
+      <c r="B125" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="3">
+        <v>83</v>
+      </c>
+      <c r="D125" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" s="2"/>
+      <c r="B126" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" s="3">
+        <v>88</v>
+      </c>
+      <c r="D126" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2"/>
+      <c r="B127" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="3">
+        <v>51</v>
+      </c>
+      <c r="D127" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128" s="4">
+        <v>197</v>
+      </c>
+      <c r="D128" s="4">
+        <v>98</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="11"/>
+      <c r="B129" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="4">
+        <v>305</v>
+      </c>
+      <c r="D129" s="4">
+        <v>190</v>
+      </c>
+      <c r="E129" s="14"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="11"/>
+      <c r="B130" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" s="4">
+        <v>170</v>
+      </c>
+      <c r="D130" s="4">
+        <v>102</v>
+      </c>
+      <c r="E130" s="14"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="11"/>
+      <c r="B131" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="5">
+        <v>20</v>
+      </c>
+      <c r="D131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A132" s="11"/>
+      <c r="B132" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C132" s="5">
+        <v>203</v>
+      </c>
+      <c r="D132" s="5">
+        <v>72</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="11"/>
+      <c r="B133" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="5">
+        <v>80</v>
+      </c>
+      <c r="D133" s="5">
         <v>49</v>
       </c>
-      <c r="D123" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="12"/>
-      <c r="B124" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C124" s="3">
-        <v>20</v>
-      </c>
-      <c r="D124" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="12"/>
-      <c r="B125" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C125" s="3">
-        <v>57</v>
-      </c>
-      <c r="D125" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="12"/>
-      <c r="B126" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C126" s="3">
-        <v>939</v>
-      </c>
-      <c r="D126" s="3">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="12"/>
-      <c r="B127" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C127" s="3">
-        <v>20</v>
-      </c>
-      <c r="D127" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="12"/>
-      <c r="B128" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="3">
-        <v>32</v>
-      </c>
-      <c r="D128" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" s="12"/>
-      <c r="B129" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C129" s="3">
-        <v>174</v>
-      </c>
-      <c r="D129" s="3">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" s="12"/>
-      <c r="B130" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C130" s="3">
-        <v>99</v>
-      </c>
-      <c r="D130" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="13"/>
-      <c r="B131" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C131" s="3">
-        <v>78</v>
-      </c>
-      <c r="D131" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="2"/>
-      <c r="B132" s="3" t="s">
+    </row>
+    <row r="134" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A134" s="11"/>
+      <c r="B134" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="3">
-        <v>134</v>
-      </c>
-      <c r="D132" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A133" s="2"/>
-      <c r="B133" s="3" t="s">
+      <c r="C134" s="5">
+        <v>261</v>
+      </c>
+      <c r="D134" s="5">
+        <v>100</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A135" s="12"/>
+      <c r="B135" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="3">
-        <v>108</v>
-      </c>
-      <c r="D133" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" s="2"/>
-      <c r="B134" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" s="3">
-        <v>20</v>
-      </c>
-      <c r="D134" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C135" s="3">
-        <v>83</v>
-      </c>
-      <c r="D135" s="3">
-        <v>55</v>
+      <c r="C135" s="5">
+        <v>267</v>
+      </c>
+      <c r="D135" s="5">
+        <v>106</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136" s="3">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="D136" s="3">
-        <v>51</v>
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C137" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D137" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138" s="3">
+        <v>20</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="2"/>
+      <c r="B139" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C138" s="3">
-        <v>51</v>
-      </c>
-      <c r="D138" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C139" s="4">
-        <v>197</v>
-      </c>
-      <c r="D139" s="4">
-        <v>98</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>346</v>
+      <c r="C139" s="3">
+        <v>41</v>
+      </c>
+      <c r="D139" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" s="12"/>
-      <c r="B140" s="4" t="s">
+      <c r="A140" s="2"/>
+      <c r="B140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C140" s="3">
+        <v>285</v>
+      </c>
+      <c r="D140" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="2"/>
+      <c r="B141" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="4">
-        <v>305</v>
-      </c>
-      <c r="D140" s="4">
-        <v>190</v>
-      </c>
-      <c r="E140" s="10"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141" s="12"/>
-      <c r="B141" s="4" t="s">
+      <c r="C141" s="3">
+        <v>108</v>
+      </c>
+      <c r="D141" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="2"/>
+      <c r="B142" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" s="3">
+        <v>28</v>
+      </c>
+      <c r="D142" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="2"/>
+      <c r="B143" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="4">
-        <v>170</v>
-      </c>
-      <c r="D141" s="4">
-        <v>102</v>
-      </c>
-      <c r="E141" s="10"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" s="12"/>
-      <c r="B142" s="5" t="s">
+      <c r="C143" s="3">
+        <v>127</v>
+      </c>
+      <c r="D143" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="2"/>
+      <c r="B144" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C144" s="3">
+        <v>257</v>
+      </c>
+      <c r="D144" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="2"/>
+      <c r="B145" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C145" s="3">
+        <v>60</v>
+      </c>
+      <c r="D145" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="2"/>
+      <c r="B146" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146" s="3">
         <v>20</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D146" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A143" s="12"/>
-      <c r="B143" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C143" s="5">
-        <v>203</v>
-      </c>
-      <c r="D143" s="5">
-        <v>72</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A144" s="12"/>
-      <c r="B144" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C144" s="5">
-        <v>80</v>
-      </c>
-      <c r="D144" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="12"/>
-      <c r="B145" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" s="5">
-        <v>261</v>
-      </c>
-      <c r="D145" s="5">
-        <v>100</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A146" s="13"/>
-      <c r="B146" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C146" s="5">
-        <v>267</v>
-      </c>
-      <c r="D146" s="5">
-        <v>106</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147" s="3">
-        <v>298</v>
+        <v>161</v>
       </c>
       <c r="D147" s="3">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C148" s="3">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D148" s="3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
       <c r="B149" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149" s="3">
         <v>20</v>
@@ -3876,94 +3881,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
       <c r="B150" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150" s="3">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="D150" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C151" s="3">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="D151" s="3">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
       <c r="B152" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C152" s="3">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D152" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
       <c r="B153" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153" s="3">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D153" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C154" s="3">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="D154" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155" s="3">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="D155" s="3">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
       <c r="B156" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C156" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D156" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
       <c r="B157" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C157" s="3">
         <v>20</v>
@@ -3972,94 +3977,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="B158" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C158" s="3">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="D158" s="3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
       <c r="B159" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159" s="3">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D159" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
       <c r="B160" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C160" s="3">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D160" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
       <c r="B161" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161" s="3">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="D161" s="3">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" s="3">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D162" s="3">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
       <c r="B163" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163" s="3">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D163" s="3">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
       <c r="B164" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164" s="3">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D164" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
       <c r="B165" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165" s="3">
         <v>20</v>
@@ -4071,298 +4076,298 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C166" s="3">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D166" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C167" s="3">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D167" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C168" s="3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D168" s="3">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169" s="3">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D169" s="3">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C170" s="3">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D170" s="3">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C171" s="3">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D171" s="3">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="2"/>
       <c r="B172" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C172" s="3">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D172" s="3">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="2"/>
       <c r="B173" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C173" s="3">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D173" s="3">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C174" s="3">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D174" s="3">
-        <v>92</v>
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C175" s="3">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D175" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C176" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D176" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C177" s="3">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D177" s="3">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C178" s="3">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D178" s="3">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C179" s="3">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D179" s="3">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="2"/>
       <c r="B180" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C180" s="3">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="D180" s="3">
-        <v>35</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="2"/>
       <c r="B181" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D181" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="2"/>
       <c r="B182" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C182" s="3">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="D182" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="2"/>
       <c r="B183" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C183" s="3">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="D183" s="3">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184" s="3">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D184" s="3">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="2"/>
       <c r="B185" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C185" s="3">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="D185" s="3">
-        <v>168</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C186" s="3">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D186" s="3">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="2"/>
       <c r="B187" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C187" s="3">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="D187" s="3">
-        <v>4</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="2"/>
       <c r="B188" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C188" s="3">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D188" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C189" s="3">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D189" s="3">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C190" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D190" s="3">
         <v>4</v>
@@ -4371,1446 +4376,1449 @@
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C191" s="3">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="D191" s="3">
-        <v>233</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="2"/>
       <c r="B192" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C192" s="3">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D192" s="3">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" s="2"/>
       <c r="B193" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C193" s="3">
+        <v>20</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="3">
-        <v>67</v>
-      </c>
-      <c r="D193" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A194" s="2"/>
-      <c r="B194" s="3" t="s">
+      <c r="C194" s="5">
+        <v>66</v>
+      </c>
+      <c r="D194" s="5">
+        <v>42</v>
+      </c>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195" s="13"/>
+      <c r="B195" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="3">
-        <v>202</v>
-      </c>
-      <c r="D194" s="3">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A195" s="2"/>
-      <c r="B195" s="3" t="s">
+      <c r="C195" s="5">
+        <v>20</v>
+      </c>
+      <c r="D195" s="5">
+        <v>1</v>
+      </c>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196" s="13"/>
+      <c r="B196" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C195" s="3">
-        <v>23</v>
-      </c>
-      <c r="D195" s="3">
+      <c r="C196" s="5">
+        <v>41</v>
+      </c>
+      <c r="D196" s="5">
+        <v>17</v>
+      </c>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197" s="13"/>
+      <c r="B197" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C197" s="5">
+        <v>45</v>
+      </c>
+      <c r="D197" s="5">
+        <v>21</v>
+      </c>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198" s="13"/>
+      <c r="B198" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C198" s="5">
+        <v>24</v>
+      </c>
+      <c r="D198" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A196" s="2"/>
-      <c r="B196" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C196" s="3">
-        <v>23</v>
-      </c>
-      <c r="D196" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A197" s="2"/>
-      <c r="B197" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C197" s="3">
-        <v>161</v>
-      </c>
-      <c r="D197" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A198" s="2"/>
-      <c r="B198" s="3" t="s">
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199" s="13"/>
+      <c r="B199" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C198" s="3">
-        <v>283</v>
-      </c>
-      <c r="D198" s="3">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A199" s="2"/>
-      <c r="B199" s="3" t="s">
+      <c r="C199" s="5">
+        <v>385</v>
+      </c>
+      <c r="D199" s="5">
+        <v>318</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200" s="13"/>
+      <c r="B200" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C199" s="3">
-        <v>37</v>
-      </c>
-      <c r="D199" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A200" s="2"/>
-      <c r="B200" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C200" s="3">
-        <v>23</v>
-      </c>
-      <c r="D200" s="3">
-        <v>4</v>
+      <c r="C200" s="5">
+        <v>268</v>
+      </c>
+      <c r="D200" s="5">
+        <v>201</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D201" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202" s="3">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D202" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="2"/>
       <c r="B203" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C203" s="3">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D203" s="3">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" s="2"/>
       <c r="B204" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C204" s="3">
+        <v>52</v>
+      </c>
+      <c r="D204" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A205" s="2"/>
+      <c r="B205" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C205" s="3">
         <v>20</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D205" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A205" s="9" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A206" s="2"/>
+      <c r="B206" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C206" s="3">
+        <v>104</v>
+      </c>
+      <c r="D206" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A207" s="2"/>
+      <c r="B207" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C207" s="3">
+        <v>42</v>
+      </c>
+      <c r="D207" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A208" s="2"/>
+      <c r="B208" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C208" s="3">
+        <v>34</v>
+      </c>
+      <c r="D208" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A209" s="2"/>
+      <c r="B209" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C209" s="3">
+        <v>39</v>
+      </c>
+      <c r="D209" s="3">
+        <v>17</v>
+      </c>
+      <c r="E209" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A210" s="2"/>
+      <c r="B210" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C210" s="3">
+        <v>43</v>
+      </c>
+      <c r="D210" s="3">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
         <v>345</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C205" s="5">
-        <v>66</v>
-      </c>
-      <c r="D205" s="5">
-        <v>42</v>
-      </c>
-      <c r="E205" s="1"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A206" s="9"/>
-      <c r="B206" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C206" s="5">
-        <v>20</v>
-      </c>
-      <c r="D206" s="5">
-        <v>1</v>
-      </c>
-      <c r="E206" s="1"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A207" s="9"/>
-      <c r="B207" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C207" s="5">
-        <v>41</v>
-      </c>
-      <c r="D207" s="5">
-        <v>17</v>
-      </c>
-      <c r="E207" s="1"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A208" s="9"/>
-      <c r="B208" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C208" s="5">
-        <v>45</v>
-      </c>
-      <c r="D208" s="5">
-        <v>21</v>
-      </c>
-      <c r="E208" s="1"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A209" s="9"/>
-      <c r="B209" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C209" s="5">
-        <v>24</v>
-      </c>
-      <c r="D209" s="5">
-        <v>4</v>
-      </c>
-      <c r="E209" s="1"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A210" s="9"/>
-      <c r="B210" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C210" s="5">
-        <v>385</v>
-      </c>
-      <c r="D210" s="5">
-        <v>318</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A211" s="9"/>
-      <c r="B211" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C211" s="5">
-        <v>268</v>
-      </c>
-      <c r="D211" s="5">
-        <v>201</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="211" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A211" s="2"/>
+      <c r="B211" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C211" s="3">
+        <v>482</v>
+      </c>
+      <c r="D211" s="3">
+        <v>351</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
       <c r="B212" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C212" s="3">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D212" s="3">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="2"/>
       <c r="B213" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C213" s="3">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D213" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="2"/>
       <c r="B214" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C214" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D214" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="2"/>
       <c r="B215" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C215" s="3">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D215" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="2"/>
       <c r="B216" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C216" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D216" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="2"/>
       <c r="B217" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C217" s="3">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D217" s="3">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="2"/>
       <c r="B218" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C218" s="3">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D218" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="2"/>
       <c r="B219" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C219" s="3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D219" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="2"/>
       <c r="B220" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C220" s="3">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="D220" s="3">
-        <v>17</v>
-      </c>
-      <c r="E220" t="s">
-        <v>356</v>
+        <v>154</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" s="2"/>
       <c r="B221" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C221" s="3">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D221" s="3">
-        <v>17</v>
-      </c>
-      <c r="E221" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="2"/>
       <c r="B222" s="3" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="C222" s="3">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="D222" s="3">
-        <v>351</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="2"/>
       <c r="B223" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C223" s="3">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D223" s="3">
-        <v>79</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>360</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="2"/>
       <c r="B224" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C224" s="3">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D224" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="2"/>
       <c r="B225" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C225" s="3">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D225" s="3">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="2"/>
       <c r="B226" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C226" s="3">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D226" s="3">
-        <v>15</v>
+        <v>48</v>
+      </c>
+      <c r="E226" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="2"/>
       <c r="B227" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D227" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="2"/>
       <c r="B228" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" s="3">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="D228" s="3">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" s="2"/>
       <c r="B229" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" s="3">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="D229" s="3">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" s="2"/>
       <c r="B230" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" s="3">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D230" s="3">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="2"/>
       <c r="B231" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" s="3">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="D231" s="3">
-        <v>154</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="2"/>
       <c r="B232" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" s="3">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D232" s="3">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="2"/>
       <c r="B233" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C233" s="3">
+        <v>55</v>
+      </c>
+      <c r="D233" s="3">
         <v>20</v>
-      </c>
-      <c r="D233" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="2"/>
       <c r="B234" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D234" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="2"/>
       <c r="B235" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" s="3">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D235" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A236" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C236" s="3">
+        <v>87</v>
+      </c>
+      <c r="D236" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A237" s="11"/>
+      <c r="B237" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C237" s="3">
+        <v>20</v>
+      </c>
+      <c r="D237" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A238" s="11"/>
+      <c r="B238" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C238" s="3">
+        <v>54</v>
+      </c>
+      <c r="D238" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A239" s="11"/>
+      <c r="B239" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C239" s="3">
+        <v>59</v>
+      </c>
+      <c r="D239" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A240" s="11"/>
+      <c r="B240" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C240" s="3">
+        <v>62</v>
+      </c>
+      <c r="D240" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241" s="11"/>
+      <c r="B241" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C241" s="3">
+        <v>65</v>
+      </c>
+      <c r="D241" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242" s="11"/>
+      <c r="B242" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C242" s="3">
+        <v>20</v>
+      </c>
+      <c r="D242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A243" s="11"/>
+      <c r="B243" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C243" s="3">
+        <v>43</v>
+      </c>
+      <c r="D243" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A244" s="11"/>
+      <c r="B244" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C244" s="3">
+        <v>44</v>
+      </c>
+      <c r="D244" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A245" s="11"/>
+      <c r="B245" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C245" s="3">
+        <v>135</v>
+      </c>
+      <c r="D245" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A246" s="11"/>
+      <c r="B246" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C246" s="3">
+        <v>51</v>
+      </c>
+      <c r="D246" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A247" s="11"/>
+      <c r="B247" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C247" s="3">
+        <v>60</v>
+      </c>
+      <c r="D247" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A248" s="11"/>
+      <c r="B248" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C248" s="3">
+        <v>216</v>
+      </c>
+      <c r="D248" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A249" s="11"/>
+      <c r="B249" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C249" s="3">
+        <v>40</v>
+      </c>
+      <c r="D249" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A236" s="2"/>
-      <c r="B236" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C236" s="3">
-        <v>55</v>
-      </c>
-      <c r="D236" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A237" s="2"/>
-      <c r="B237" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C237" s="3">
-        <v>77</v>
-      </c>
-      <c r="D237" s="3">
-        <v>48</v>
-      </c>
-      <c r="E237" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A238" s="2"/>
-      <c r="B238" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C238" s="3">
-        <v>40</v>
-      </c>
-      <c r="D238" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A239" s="2"/>
-      <c r="B239" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C239" s="3">
-        <v>107</v>
-      </c>
-      <c r="D239" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A240" s="2"/>
-      <c r="B240" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C240" s="3">
-        <v>191</v>
-      </c>
-      <c r="D240" s="3">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A241" s="2"/>
-      <c r="B241" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C241" s="3">
-        <v>88</v>
-      </c>
-      <c r="D241" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A242" s="2"/>
-      <c r="B242" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C242" s="3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A250" s="11"/>
+      <c r="B250" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C250" s="3">
+        <v>36</v>
+      </c>
+      <c r="D250" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A251" s="11"/>
+      <c r="B251" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C251" s="3">
+        <v>69</v>
+      </c>
+      <c r="D251" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A252" s="11"/>
+      <c r="B252" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C252" s="3">
+        <v>20</v>
+      </c>
+      <c r="D252" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A253" s="11"/>
+      <c r="B253" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C253" s="3">
         <v>34</v>
       </c>
-      <c r="D242" s="3">
+      <c r="D253" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A254" s="11"/>
+      <c r="B254" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C254" s="3">
+        <v>23</v>
+      </c>
+      <c r="D254" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A255" s="11"/>
+      <c r="B255" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C255" s="3">
+        <v>33</v>
+      </c>
+      <c r="D255" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A243" s="2"/>
-      <c r="B243" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C243" s="3">
-        <v>145</v>
-      </c>
-      <c r="D243" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A244" s="2"/>
-      <c r="B244" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C244" s="3">
-        <v>55</v>
-      </c>
-      <c r="D244" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A245" s="2"/>
-      <c r="B245" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C245" s="3">
-        <v>29</v>
-      </c>
-      <c r="D245" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A246" s="2"/>
-      <c r="B246" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C246" s="3">
-        <v>20</v>
-      </c>
-      <c r="D246" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A247" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C247" s="3">
-        <v>87</v>
-      </c>
-      <c r="D247" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="12"/>
-      <c r="B248" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C248" s="3">
-        <v>20</v>
-      </c>
-      <c r="D248" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="12"/>
-      <c r="B249" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C249" s="3">
-        <v>54</v>
-      </c>
-      <c r="D249" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="12"/>
-      <c r="B250" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C250" s="3">
-        <v>59</v>
-      </c>
-      <c r="D250" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A251" s="12"/>
-      <c r="B251" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C251" s="3">
-        <v>62</v>
-      </c>
-      <c r="D251" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A252" s="12"/>
-      <c r="B252" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C252" s="3">
-        <v>65</v>
-      </c>
-      <c r="D252" s="3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A256" s="11"/>
+      <c r="B256" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C256" s="3">
+        <v>83</v>
+      </c>
+      <c r="D256" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A257" s="11"/>
+      <c r="B257" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C257" s="3">
+        <v>164</v>
+      </c>
+      <c r="D257" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A258" s="11"/>
+      <c r="B258" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C258" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A253" s="12"/>
-      <c r="B253" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C253" s="3">
-        <v>20</v>
-      </c>
-      <c r="D253" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A254" s="12"/>
-      <c r="B254" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C254" s="3">
-        <v>43</v>
-      </c>
-      <c r="D254" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A255" s="12"/>
-      <c r="B255" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C255" s="3">
-        <v>44</v>
-      </c>
-      <c r="D255" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A256" s="12"/>
-      <c r="B256" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C256" s="3">
-        <v>135</v>
-      </c>
-      <c r="D256" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A257" s="12"/>
-      <c r="B257" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C257" s="3">
-        <v>51</v>
-      </c>
-      <c r="D257" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A258" s="12"/>
-      <c r="B258" s="3" t="s">
+      <c r="D258" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A259" s="11"/>
+      <c r="B259" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C259" s="3">
+        <v>34</v>
+      </c>
+      <c r="D259" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260" s="11"/>
+      <c r="B260" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C260" s="3">
         <v>60</v>
       </c>
-      <c r="D258" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="12"/>
-      <c r="B259" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C259" s="3">
-        <v>216</v>
-      </c>
-      <c r="D259" s="3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="12"/>
-      <c r="B260" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C260" s="3">
-        <v>40</v>
-      </c>
       <c r="D260" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="12"/>
       <c r="B261" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C261" s="3">
+        <v>217</v>
+      </c>
+      <c r="D261" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A262" s="2"/>
+      <c r="B262" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C261" s="3">
-        <v>36</v>
-      </c>
-      <c r="D261" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A262" s="12"/>
-      <c r="B262" s="3" t="s">
+      <c r="C262" s="3">
+        <v>39</v>
+      </c>
+      <c r="D262" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A263" s="2"/>
+      <c r="B263" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C262" s="3">
-        <v>69</v>
-      </c>
-      <c r="D262" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A263" s="12"/>
-      <c r="B263" s="3" t="s">
+      <c r="C263" s="3">
+        <v>825</v>
+      </c>
+      <c r="D263" s="3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A264" s="2"/>
+      <c r="B264" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C264" s="3">
+        <v>268</v>
+      </c>
+      <c r="D264" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A265" s="2"/>
+      <c r="B265" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C265" s="3">
+        <v>136</v>
+      </c>
+      <c r="D265" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A266" s="2"/>
+      <c r="B266" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C266" s="3">
         <v>20</v>
       </c>
-      <c r="D263" s="3">
+      <c r="D266" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A264" s="12"/>
-      <c r="B264" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C264" s="3">
-        <v>34</v>
-      </c>
-      <c r="D264" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A265" s="12"/>
-      <c r="B265" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C265" s="3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A267" s="2"/>
+      <c r="B267" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C267" s="3">
         <v>23</v>
       </c>
-      <c r="D265" s="3">
+      <c r="D267" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A266" s="12"/>
-      <c r="B266" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C266" s="3">
-        <v>33</v>
-      </c>
-      <c r="D266" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A267" s="12"/>
-      <c r="B267" s="3" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A268" s="2"/>
+      <c r="B268" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C267" s="3">
-        <v>83</v>
-      </c>
-      <c r="D267" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A268" s="12"/>
-      <c r="B268" s="3" t="s">
+      <c r="C268" s="3">
+        <v>23</v>
+      </c>
+      <c r="D268" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A269" s="2"/>
+      <c r="B269" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C268" s="3">
-        <v>164</v>
-      </c>
-      <c r="D268" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A269" s="12"/>
-      <c r="B269" s="3" t="s">
+      <c r="C269" s="3">
+        <v>20</v>
+      </c>
+      <c r="D269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A270" s="2"/>
+      <c r="B270" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C269" s="3">
-        <v>37</v>
-      </c>
-      <c r="D269" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="12"/>
-      <c r="B270" s="3" t="s">
+      <c r="C270" s="3">
+        <v>31</v>
+      </c>
+      <c r="D270" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A271" s="2"/>
+      <c r="B271" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C270" s="3">
-        <v>34</v>
-      </c>
-      <c r="D270" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A271" s="12"/>
-      <c r="B271" s="3" t="s">
+      <c r="C271" s="3">
+        <v>25</v>
+      </c>
+      <c r="D271" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A272" s="2"/>
+      <c r="B272" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C271" s="3">
-        <v>60</v>
-      </c>
-      <c r="D271" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="13"/>
-      <c r="B272" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="C272" s="3">
-        <v>217</v>
+        <v>48</v>
       </c>
       <c r="D272" s="3">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
       <c r="B273" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C273" s="3">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="D273" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
       <c r="B274" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C274" s="3">
-        <v>825</v>
+        <v>42</v>
       </c>
       <c r="D274" s="3">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
       <c r="B275" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C275" s="3">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="D275" s="3">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
       <c r="B276" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C276" s="3">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="D276" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
       <c r="B277" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C277" s="3">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="D277" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
       <c r="B278" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C278" s="3">
+        <v>39</v>
+      </c>
+      <c r="D278" s="3">
+        <v>16</v>
+      </c>
+      <c r="E278" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A279" s="2"/>
+      <c r="B279" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C278" s="3">
-        <v>23</v>
-      </c>
-      <c r="D278" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A279" s="2"/>
-      <c r="B279" s="3" t="s">
+      <c r="C279" s="5">
+        <v>141</v>
+      </c>
+      <c r="D279" s="5">
+        <v>92</v>
+      </c>
+      <c r="E279" s="1"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A280" s="2"/>
+      <c r="B280" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C279" s="3">
-        <v>23</v>
-      </c>
-      <c r="D279" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A280" s="2"/>
-      <c r="B280" s="3" t="s">
+      <c r="C280" s="5">
+        <v>47</v>
+      </c>
+      <c r="D280" s="5">
+        <v>17</v>
+      </c>
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A281" s="2"/>
+      <c r="B281" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C280" s="3">
+      <c r="C281" s="5">
         <v>20</v>
       </c>
-      <c r="D280" s="3">
+      <c r="D281" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A281" s="2"/>
-      <c r="B281" s="3" t="s">
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A282" s="2"/>
+      <c r="B282" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C281" s="3">
-        <v>31</v>
-      </c>
-      <c r="D281" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A282" s="2"/>
-      <c r="B282" s="3" t="s">
+      <c r="C282" s="5">
+        <v>93</v>
+      </c>
+      <c r="D282" s="5">
+        <v>51</v>
+      </c>
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A283" s="2"/>
+      <c r="B283" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C282" s="3">
-        <v>25</v>
-      </c>
-      <c r="D282" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A283" s="2"/>
-      <c r="B283" s="3" t="s">
+      <c r="C283" s="5">
+        <v>58</v>
+      </c>
+      <c r="D283" s="5">
+        <v>24</v>
+      </c>
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A284" s="2"/>
+      <c r="B284" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C283" s="3">
-        <v>48</v>
-      </c>
-      <c r="D283" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A284" s="2"/>
-      <c r="B284" s="3" t="s">
+      <c r="C284" s="5">
+        <v>20</v>
+      </c>
+      <c r="D284" s="5">
+        <v>1</v>
+      </c>
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A285" s="2"/>
+      <c r="B285" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C284" s="3">
-        <v>257</v>
-      </c>
-      <c r="D284" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A285" s="2"/>
-      <c r="B285" s="3" t="s">
+      <c r="C285" s="5">
+        <v>20</v>
+      </c>
+      <c r="D285" s="5">
+        <v>1</v>
+      </c>
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A286" s="2"/>
+      <c r="B286" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C285" s="3">
-        <v>42</v>
-      </c>
-      <c r="D285" s="3">
+      <c r="C286" s="5">
+        <v>54</v>
+      </c>
+      <c r="D286" s="5">
+        <v>9</v>
+      </c>
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A287" s="2"/>
+      <c r="B287" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C287" s="5">
+        <v>43</v>
+      </c>
+      <c r="D287" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A286" s="2"/>
-      <c r="B286" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C286" s="3">
-        <v>40</v>
-      </c>
-      <c r="D286" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A287" s="2"/>
-      <c r="B287" s="3" t="s">
+      <c r="E287" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A288" s="2"/>
+      <c r="B288" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C287" s="3">
-        <v>97</v>
-      </c>
-      <c r="D287" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A288" s="2"/>
-      <c r="B288" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C288" s="3">
-        <v>298</v>
-      </c>
-      <c r="D288" s="3">
-        <v>221</v>
-      </c>
+      <c r="C288" s="5">
+        <v>56</v>
+      </c>
+      <c r="D288" s="5">
+        <v>10</v>
+      </c>
+      <c r="E288" s="1"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A289" s="2"/>
-      <c r="B289" s="3" t="s">
+      <c r="A289" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C289" s="5">
+        <v>89</v>
+      </c>
+      <c r="D289" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A290" s="16"/>
+      <c r="B290" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C289" s="3">
-        <v>39</v>
-      </c>
-      <c r="D289" s="3">
-        <v>16</v>
-      </c>
-      <c r="E289" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A290" s="2"/>
-      <c r="B290" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="C290" s="5">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="D290" s="5">
-        <v>92</v>
-      </c>
-      <c r="E290" s="1"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A291" s="2"/>
+      <c r="A291" s="16"/>
       <c r="B291" s="5" t="s">
         <v>290</v>
       </c>
       <c r="C291" s="5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D291" s="5">
-        <v>17</v>
-      </c>
-      <c r="E291" s="1"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A292" s="2"/>
+      <c r="A292" s="16"/>
       <c r="B292" s="5" t="s">
         <v>291</v>
       </c>
       <c r="C292" s="5">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D292" s="5">
-        <v>1</v>
-      </c>
-      <c r="E292" s="1"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A293" s="2"/>
+      <c r="A293" s="16"/>
       <c r="B293" s="5" t="s">
         <v>292</v>
       </c>
       <c r="C293" s="5">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D293" s="5">
-        <v>51</v>
-      </c>
-      <c r="E293" s="1"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A294" s="2"/>
+      <c r="A294" s="16"/>
       <c r="B294" s="5" t="s">
         <v>293</v>
       </c>
       <c r="C294" s="5">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D294" s="5">
-        <v>24</v>
-      </c>
-      <c r="E294" s="1"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A295" s="2"/>
+      <c r="A295" s="16"/>
       <c r="B295" s="5" t="s">
         <v>294</v>
       </c>
       <c r="C295" s="5">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D295" s="5">
-        <v>1</v>
-      </c>
-      <c r="E295" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A296" s="2"/>
+      <c r="A296" s="16"/>
       <c r="B296" s="5" t="s">
         <v>295</v>
       </c>
       <c r="C296" s="5">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D296" s="5">
-        <v>1</v>
-      </c>
-      <c r="E296" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A297" s="2"/>
+      <c r="A297" s="16"/>
       <c r="B297" s="5" t="s">
         <v>296</v>
       </c>
       <c r="C297" s="5">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D297" s="5">
-        <v>9</v>
-      </c>
-      <c r="E297" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E297" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A298" s="2"/>
+      <c r="A298" s="16"/>
       <c r="B298" s="5" t="s">
         <v>297</v>
       </c>
       <c r="C298" s="5">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D298" s="5">
-        <v>17</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>342</v>
+        <v>33</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A299" s="2"/>
+      <c r="A299" s="16"/>
       <c r="B299" s="5" t="s">
         <v>298</v>
       </c>
       <c r="C299" s="5">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D299" s="5">
-        <v>10</v>
-      </c>
-      <c r="E299" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A300" s="14" t="s">
-        <v>355</v>
-      </c>
+      <c r="A300" s="16"/>
       <c r="B300" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C300" s="5">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D300" s="5">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A301" s="15"/>
+      <c r="A301" s="16"/>
       <c r="B301" s="5" t="s">
         <v>300</v>
       </c>
       <c r="C301" s="5">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D301" s="5">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A302" s="15"/>
+      <c r="A302" s="16"/>
       <c r="B302" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C302" s="5">
+        <v>65</v>
+      </c>
+      <c r="D302" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A303" s="16"/>
+      <c r="B303" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C302" s="5">
+      <c r="C303" s="5">
+        <v>65</v>
+      </c>
+      <c r="D303" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A304" s="16"/>
+      <c r="B304" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C304" s="5">
         <v>52</v>
       </c>
-      <c r="D302" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A303" s="15"/>
-      <c r="B303" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C303" s="5">
-        <v>52</v>
-      </c>
-      <c r="D303" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A304" s="15"/>
-      <c r="B304" s="5" t="s">
+      <c r="D304" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A305" s="16"/>
+      <c r="B305" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C304" s="5">
+      <c r="C305" s="5">
+        <v>85</v>
+      </c>
+      <c r="D305" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A306" s="16"/>
+      <c r="B306" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C306" s="5">
         <v>61</v>
       </c>
-      <c r="D304" s="5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A305" s="15"/>
-      <c r="B305" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C305" s="5">
-        <v>69</v>
-      </c>
-      <c r="D305" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A306" s="15"/>
-      <c r="B306" s="5" t="s">
+      <c r="D306" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A307" s="16"/>
+      <c r="B307" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="C306" s="5">
-        <v>51</v>
-      </c>
-      <c r="D306" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A307" s="15"/>
-      <c r="B307" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="C307" s="5">
         <v>51</v>
@@ -5819,37 +5827,34 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A308" s="15"/>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A308" s="16"/>
       <c r="B308" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C308" s="5">
+        <v>51</v>
+      </c>
+      <c r="D308" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A309" s="16"/>
+      <c r="B309" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C308" s="5">
-        <v>39</v>
-      </c>
-      <c r="D308" s="5">
-        <v>19</v>
-      </c>
-      <c r="E308" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A309" s="15"/>
-      <c r="B309" s="5" t="s">
+      <c r="C309" s="5">
+        <v>79</v>
+      </c>
+      <c r="D309" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A310" s="16"/>
+      <c r="B310" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="C309" s="5">
-        <v>59</v>
-      </c>
-      <c r="D309" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A310" s="15"/>
-      <c r="B310" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="C310" s="5">
         <v>51</v>
@@ -5858,106 +5863,106 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A311" s="15"/>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A311" s="16"/>
       <c r="B311" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C311" s="5">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D311" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A312" s="15"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A312" s="16"/>
       <c r="B312" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C312" s="5">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D312" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A313" s="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A313" s="16"/>
       <c r="B313" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C313" s="5">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D313" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A314" s="15"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A314" s="16"/>
       <c r="B314" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C314" s="5">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D314" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A315" s="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A315" s="16"/>
       <c r="B315" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C315" s="5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D315" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A316" s="15"/>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A316" s="16"/>
       <c r="B316" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C316" s="5">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D316" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A317" s="15"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A317" s="16"/>
       <c r="B317" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C317" s="5">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D317" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A318" s="15"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A318" s="16"/>
       <c r="B318" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C318" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D318" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A319" s="15"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A319" s="16"/>
       <c r="B319" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C319" s="5">
         <v>51</v>
@@ -5966,285 +5971,153 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A320" s="15"/>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A320" s="16"/>
       <c r="B320" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C320" s="5">
+        <v>65</v>
+      </c>
+      <c r="D320" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A321" s="16"/>
+      <c r="B321" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C321" s="5">
+        <v>36</v>
+      </c>
+      <c r="D321" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A322" s="16"/>
+      <c r="B322" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C322" s="5">
+        <v>66</v>
+      </c>
+      <c r="D322" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A323" s="17"/>
+      <c r="B323" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C323" s="5">
+        <v>138</v>
+      </c>
+      <c r="D323" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A324" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C324" s="5">
+        <v>43</v>
+      </c>
+      <c r="D324" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A325" s="11"/>
+      <c r="B325" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C325" s="5">
+        <v>31</v>
+      </c>
+      <c r="D325" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A326" s="11"/>
+      <c r="B326" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C326" s="5">
+        <v>30</v>
+      </c>
+      <c r="D326" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A327" s="11"/>
+      <c r="B327" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C327" s="5">
         <v>79</v>
       </c>
-      <c r="D320" s="5">
+      <c r="D327" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A321" s="15"/>
-      <c r="B321" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C321" s="5">
-        <v>51</v>
-      </c>
-      <c r="D321" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A322" s="15"/>
-      <c r="B322" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C322" s="5">
-        <v>72</v>
-      </c>
-      <c r="D322" s="5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A323" s="15"/>
-      <c r="B323" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C323" s="5">
-        <v>55</v>
-      </c>
-      <c r="D323" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A324" s="15"/>
-      <c r="B324" s="5" t="s">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A328" s="12"/>
+      <c r="B328" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C328" s="5">
+        <v>30</v>
+      </c>
+      <c r="D328" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A329" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B329" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C324" s="5">
-        <v>51</v>
-      </c>
-      <c r="D324" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A325" s="15"/>
-      <c r="B325" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C325" s="5">
-        <v>20</v>
-      </c>
-      <c r="D325" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A326" s="15"/>
-      <c r="B326" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C326" s="5">
-        <v>51</v>
-      </c>
-      <c r="D326" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A327" s="15"/>
-      <c r="B327" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C327" s="5">
-        <v>52</v>
-      </c>
-      <c r="D327" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A328" s="15"/>
-      <c r="B328" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C328" s="5">
-        <v>52</v>
-      </c>
-      <c r="D328" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A329" s="15"/>
-      <c r="B329" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C329" s="5">
-        <v>52</v>
-      </c>
-      <c r="D329" s="5">
-        <v>28</v>
+      <c r="C329" s="8">
+        <v>361</v>
+      </c>
+      <c r="D329" s="8">
+        <v>261</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A330" s="15"/>
+      <c r="A330" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="B330" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C330" s="5">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="D330" s="5">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A331" s="15"/>
+      <c r="A331" s="2"/>
       <c r="B331" s="5" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C331" s="5">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D331" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A332" s="15"/>
-      <c r="B332" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C332" s="5">
-        <v>36</v>
-      </c>
-      <c r="D332" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A333" s="15"/>
-      <c r="B333" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C333" s="5">
-        <v>66</v>
-      </c>
-      <c r="D333" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A334" s="16"/>
-      <c r="B334" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C334" s="5">
-        <v>138</v>
-      </c>
-      <c r="D334" s="5">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A335" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C335" s="5">
-        <v>43</v>
-      </c>
-      <c r="D335" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A336" s="12"/>
-      <c r="B336" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C336" s="5">
-        <v>31</v>
-      </c>
-      <c r="D336" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A337" s="12"/>
-      <c r="B337" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C337" s="5">
-        <v>30</v>
-      </c>
-      <c r="D337" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A338" s="12"/>
-      <c r="B338" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C338" s="5">
-        <v>79</v>
-      </c>
-      <c r="D338" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A339" s="13"/>
-      <c r="B339" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C339" s="5">
-        <v>30</v>
-      </c>
-      <c r="D339" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A340" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B340" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C340" s="8">
-        <v>361</v>
-      </c>
-      <c r="D340" s="8">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A341" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C341" s="5">
-        <v>171</v>
-      </c>
-      <c r="D341" s="5">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A342" s="2"/>
-      <c r="B342" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C342" s="5">
-        <v>57</v>
-      </c>
-      <c r="D342" s="5">
         <v>27</v>
       </c>
     </row>
@@ -6252,15 +6125,17 @@
   <sortState ref="B1:G682">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="A53:A70"/>
-    <mergeCell ref="A89:A131"/>
-    <mergeCell ref="A205:A211"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="A300:A334"/>
-    <mergeCell ref="A335:A339"/>
-    <mergeCell ref="A247:A272"/>
+  <mergeCells count="10">
+    <mergeCell ref="A289:A323"/>
+    <mergeCell ref="A324:A328"/>
+    <mergeCell ref="A236:A261"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="A86:A120"/>
+    <mergeCell ref="A194:A200"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="A128:A135"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
